--- a/documents/Documentations.xlsx
+++ b/documents/Documentations.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\testing\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB581AE6-B43E-4F05-A62F-20C66464AC36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C896592-14AF-4338-B65C-A7FE7F20FEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{DD198B49-0243-4A5C-9C43-27E058F9B647}"/>
   </bookViews>
   <sheets>
     <sheet name="Pair Programming Rotation (2)" sheetId="5" r:id="rId1"/>
     <sheet name="Pair Programming Rotation" sheetId="1" r:id="rId2"/>
-    <sheet name="Iteration Outline" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Iteration</t>
   </si>
@@ -90,30 +89,6 @@
   </si>
   <si>
     <t>Leonard, See Hoe</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>4,5,6</t>
-  </si>
-  <si>
-    <t>6, 7 (PM Review),8</t>
-  </si>
-  <si>
-    <t>8, 9 (Online Review),10</t>
-  </si>
-  <si>
-    <t>10, 11 (UAT),12</t>
-  </si>
-  <si>
-    <t>12, 13 (Project Submission) 17 Nov  – 14 (Final Presentation)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +117,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,20 +154,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,63 +178,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,56 +220,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2DFB3B-C135-49BF-89CC-1C57D719728D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,7 +651,7 @@
     <col min="1" max="4" width="15.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -814,8 +678,14 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -828,36 +698,54 @@
       <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -870,111 +758,28 @@
       <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5500B05B-F889-4C7A-8D87-E95683FFE01E}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="15.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20">
-        <v>43722</v>
-      </c>
-      <c r="C3" s="20">
-        <v>43736</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43736</v>
-      </c>
-      <c r="C4" s="22">
-        <v>43809</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24">
-        <v>43809</v>
-      </c>
-      <c r="C5" s="24">
-        <v>43764</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26">
-        <v>43764</v>
-      </c>
-      <c r="C6" s="26">
-        <v>43719</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28">
-        <v>43719</v>
-      </c>
-      <c r="C7" s="28">
-        <v>43792</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>26</v>
-      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Documentations.xlsx
+++ b/documents/Documentations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fake-repo-for-SPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C896592-14AF-4338-B65C-A7FE7F20FEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEC70AF-2DC9-476E-849B-B6247B2E7097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{DD198B49-0243-4A5C-9C43-27E058F9B647}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>Iteration</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Leonard, See Hoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonard, See Hoe </t>
+  </si>
+  <si>
+    <t>Serene, See Hoe</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +652,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -750,13 +759,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -766,6 +775,18 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
